--- a/SP_Sklad/TempLate/RepMatSelPr.xlsx
+++ b/SP_Sklad/TempLate/RepMatSelPr.xlsx
@@ -13,10 +13,10 @@
     <definedName name="MatGroup">Лист1!$A$11:$N$15</definedName>
     <definedName name="MatList">Лист1!$A$13:$N$14</definedName>
     <definedName name="range1">Лист1!#REF!</definedName>
-    <definedName name="sectionPrice">Лист1!$A$24:$N$24</definedName>
+    <definedName name="sectionPrice">Лист1!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$10:$10</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -537,7 +537,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -573,10 +573,6 @@
     </xf>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1057,11 +1053,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:N101"/>
+  <dimension ref="B1:N18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N18" sqref="N18"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1083,21 +1079,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="27" customHeight="1">
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
     </row>
     <row r="2" spans="2:14" ht="12.75" customHeight="1">
       <c r="B2" s="1"/>
@@ -1115,10 +1111,10 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="23" t="e">
+      <c r="D3" s="21" t="e">
         <f>CONCATENATE("з "&amp;XLRPARAMS_StartDate," по "&amp;XLRPARAMS_EndDate)</f>
         <v>#NAME?</v>
       </c>
@@ -1134,11 +1130,11 @@
       <c r="N3" s="3"/>
     </row>
     <row r="4" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="22" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="25" t="e">
+      <c r="D4" s="23" t="e">
         <f>XLRPARAMS_GRP</f>
         <v>#NAME?</v>
       </c>
@@ -1154,218 +1150,218 @@
       <c r="N4" s="3"/>
     </row>
     <row r="5" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="23" t="e">
+      <c r="D5" s="21" t="e">
         <f>XLRPARAMS_WH</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="36" t="e">
+      <c r="C6" s="32"/>
+      <c r="D6" s="34" t="e">
         <f>XLRPARAMS_KAID</f>
         <v>#NAME?</v>
       </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
     </row>
     <row r="7" spans="2:14" ht="5.25" customHeight="1">
-      <c r="B7" s="22"/>
-      <c r="D7" s="23"/>
+      <c r="B7" s="20"/>
+      <c r="D7" s="21"/>
     </row>
     <row r="8" spans="2:14" ht="26.25" customHeight="1">
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="53" t="s">
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="53" t="s">
+      <c r="H8" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="47" t="s">
+      <c r="I8" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="48"/>
-      <c r="K8" s="47" t="s">
+      <c r="J8" s="46"/>
+      <c r="K8" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="48"/>
-      <c r="M8" s="53" t="s">
+      <c r="L8" s="46"/>
+      <c r="M8" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="53" t="s">
+      <c r="N8" s="51" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B9" s="54"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="26" t="s">
+      <c r="B9" s="52"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="26" t="s">
+      <c r="J9" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="26" t="s">
+      <c r="K9" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="26" t="s">
+      <c r="L9" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
     </row>
     <row r="10" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B10" s="28">
+      <c r="B10" s="26">
         <v>1</v>
       </c>
-      <c r="C10" s="50">
+      <c r="C10" s="48">
         <v>2</v>
       </c>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="28">
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="26">
         <v>3</v>
       </c>
-      <c r="H10" s="28">
+      <c r="H10" s="26">
         <v>4</v>
       </c>
-      <c r="I10" s="28">
+      <c r="I10" s="26">
         <v>5</v>
       </c>
-      <c r="J10" s="28">
+      <c r="J10" s="26">
         <v>6</v>
       </c>
-      <c r="K10" s="28">
+      <c r="K10" s="26">
         <v>7</v>
       </c>
-      <c r="L10" s="28">
+      <c r="L10" s="26">
         <v>8</v>
       </c>
-      <c r="M10" s="28">
+      <c r="M10" s="26">
         <v>9</v>
       </c>
-      <c r="N10" s="28">
+      <c r="N10" s="26">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="2:14" ht="12.75" customHeight="1">
-      <c r="B11" s="32"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="33"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="31"/>
     </row>
     <row r="12" spans="2:14" ht="12.75" customHeight="1">
-      <c r="B12" s="37" t="e">
+      <c r="B12" s="35" t="e">
         <f>MatGroup_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="42"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="40"/>
     </row>
     <row r="13" spans="2:14" ht="12.75" customHeight="1">
-      <c r="B13" s="39" t="e">
+      <c r="B13" s="37" t="e">
         <f>MatList_BARCODE</f>
         <v>#NAME?</v>
       </c>
-      <c r="C13" s="43" t="e">
+      <c r="C13" s="41" t="e">
         <f>MatList_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="40" t="e">
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="38" t="e">
         <f>MatList_MSRNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="H13" s="41" t="e">
+      <c r="H13" s="39" t="e">
         <f>MatList_AVGPRICE</f>
         <v>#NAME?</v>
       </c>
-      <c r="I13" s="40" t="e">
+      <c r="I13" s="38" t="e">
         <f>MatList_AmountOut</f>
         <v>#NAME?</v>
       </c>
-      <c r="J13" s="40" t="e">
+      <c r="J13" s="38" t="e">
         <f>MatList_SummOut</f>
         <v>#NAME?</v>
       </c>
-      <c r="K13" s="40" t="e">
+      <c r="K13" s="38" t="e">
         <f>MatList_AmountIn</f>
         <v>#NAME?</v>
       </c>
-      <c r="L13" s="40" t="e">
+      <c r="L13" s="38" t="e">
         <f>MatList_SummIn</f>
         <v>#NAME?</v>
       </c>
-      <c r="M13" s="40" t="e">
+      <c r="M13" s="38" t="e">
         <f>I13-K13</f>
         <v>#NAME?</v>
       </c>
-      <c r="N13" s="40" t="e">
+      <c r="N13" s="38" t="e">
         <f>MatList_Income</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="12.75" customHeight="1">
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="29" t="s">
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="30"/>
-      <c r="L14" s="29" t="s">
+      <c r="K14" s="28"/>
+      <c r="L14" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29" t="s">
+      <c r="M14" s="27"/>
+      <c r="N14" s="27" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1399,9 +1395,9 @@
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
     </row>
-    <row r="17" spans="1:14" ht="12.75" customHeight="1">
+    <row r="17" spans="2:14" ht="12.75" customHeight="1">
       <c r="B17" s="10"/>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="25" t="s">
         <v>3</v>
       </c>
       <c r="D17" s="11"/>
@@ -1425,7 +1421,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="12.75" customHeight="1">
+    <row r="18" spans="2:14" ht="12.75" customHeight="1">
       <c r="B18" s="16"/>
       <c r="C18" s="17"/>
       <c r="D18" s="16"/>
@@ -1440,118 +1436,6 @@
       <c r="M18" s="19"/>
       <c r="N18" s="19"/>
     </row>
-    <row r="19" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-    </row>
-    <row r="20" spans="1:14" ht="12.75" customHeight="1"/>
-    <row r="21" spans="1:14" ht="12.75" customHeight="1"/>
-    <row r="22" spans="1:14" ht="12.75" customHeight="1"/>
-    <row r="23" spans="1:14" ht="12.75" customHeight="1"/>
-    <row r="24" spans="1:14" ht="12.75" customHeight="1">
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-    </row>
-    <row r="25" spans="1:14" ht="12.75" customHeight="1"/>
-    <row r="26" spans="1:14" ht="12.75" customHeight="1"/>
-    <row r="27" spans="1:14" ht="12.75" customHeight="1"/>
-    <row r="28" spans="1:14" ht="12.75" customHeight="1"/>
-    <row r="29" spans="1:14" ht="12.75" customHeight="1"/>
-    <row r="30" spans="1:14" ht="12.75" customHeight="1"/>
-    <row r="31" spans="1:14" ht="12.75" customHeight="1"/>
-    <row r="32" spans="1:14" ht="12.75" customHeight="1"/>
-    <row r="33" ht="12.75" customHeight="1"/>
-    <row r="34" ht="12.75" customHeight="1"/>
-    <row r="35" ht="12.75" customHeight="1"/>
-    <row r="36" ht="12.75" customHeight="1"/>
-    <row r="37" ht="12.75" customHeight="1"/>
-    <row r="38" ht="12.75" customHeight="1"/>
-    <row r="39" ht="12.75" customHeight="1"/>
-    <row r="40" ht="12.75" customHeight="1"/>
-    <row r="41" ht="12.75" customHeight="1"/>
-    <row r="42" ht="12.75" customHeight="1"/>
-    <row r="43" ht="12.75" customHeight="1"/>
-    <row r="44" ht="12.75" customHeight="1"/>
-    <row r="45" ht="12.75" customHeight="1"/>
-    <row r="46" ht="12.75" customHeight="1"/>
-    <row r="47" ht="12.75" customHeight="1"/>
-    <row r="48" ht="12.75" customHeight="1"/>
-    <row r="49" ht="12.75" customHeight="1"/>
-    <row r="50" ht="12.75" customHeight="1"/>
-    <row r="51" ht="12.75" customHeight="1"/>
-    <row r="52" ht="12.75" customHeight="1"/>
-    <row r="53" ht="12.75" customHeight="1"/>
-    <row r="54" ht="12.75" customHeight="1"/>
-    <row r="55" ht="12.75" customHeight="1"/>
-    <row r="56" ht="12.75" customHeight="1"/>
-    <row r="57" ht="12.75" customHeight="1"/>
-    <row r="58" ht="12.75" customHeight="1"/>
-    <row r="59" ht="12.75" customHeight="1"/>
-    <row r="60" ht="12.75" customHeight="1"/>
-    <row r="61" ht="12.75" customHeight="1"/>
-    <row r="62" ht="12.75" customHeight="1"/>
-    <row r="63" ht="12.75" customHeight="1"/>
-    <row r="64" ht="12.75" customHeight="1"/>
-    <row r="65" ht="12.75" customHeight="1"/>
-    <row r="66" ht="12.75" customHeight="1"/>
-    <row r="67" ht="12.75" customHeight="1"/>
-    <row r="68" ht="12.75" customHeight="1"/>
-    <row r="69" ht="12.75" customHeight="1"/>
-    <row r="70" ht="12.75" customHeight="1"/>
-    <row r="71" ht="12.75" customHeight="1"/>
-    <row r="72" ht="12.75" customHeight="1"/>
-    <row r="73" ht="12.75" customHeight="1"/>
-    <row r="74" ht="12.75" customHeight="1"/>
-    <row r="75" ht="12.75" customHeight="1"/>
-    <row r="76" ht="12.75" customHeight="1"/>
-    <row r="77" ht="12.75" customHeight="1"/>
-    <row r="78" ht="12.75" customHeight="1"/>
-    <row r="79" ht="12.75" customHeight="1"/>
-    <row r="80" ht="12.75" customHeight="1"/>
-    <row r="81" ht="12.75" customHeight="1"/>
-    <row r="82" ht="12.75" customHeight="1"/>
-    <row r="83" ht="12.75" customHeight="1"/>
-    <row r="84" ht="12.75" customHeight="1"/>
-    <row r="85" ht="12.75" customHeight="1"/>
-    <row r="86" ht="12.75" customHeight="1"/>
-    <row r="87" ht="12.75" customHeight="1"/>
-    <row r="88" ht="12.75" customHeight="1"/>
-    <row r="89" ht="12.75" customHeight="1"/>
-    <row r="90" ht="12.75" customHeight="1"/>
-    <row r="91" ht="12.75" customHeight="1"/>
-    <row r="92" ht="12.75" customHeight="1"/>
-    <row r="93" ht="12.75" customHeight="1"/>
-    <row r="94" ht="12.75" customHeight="1"/>
-    <row r="95" ht="12.75" customHeight="1"/>
-    <row r="96" ht="12.75" customHeight="1"/>
-    <row r="97" ht="12.75" customHeight="1"/>
-    <row r="98" ht="12.75" customHeight="1"/>
-    <row r="99" ht="12.75" customHeight="1"/>
-    <row r="100" ht="12.75" customHeight="1"/>
-    <row r="101" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="C13:F13"/>

--- a/SP_Sklad/TempLate/RepMatSelPr.xlsx
+++ b/SP_Sklad/TempLate/RepMatSelPr.xlsx
@@ -10,8 +10,8 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="MatGroup">Лист1!$A$11:$N$15</definedName>
-    <definedName name="MatList">Лист1!$A$13:$N$14</definedName>
+    <definedName name="MatGroup">Лист1!$A$11:$O$15</definedName>
+    <definedName name="MatList">Лист1!$A$13:$O$14</definedName>
     <definedName name="range1">Лист1!#REF!</definedName>
     <definedName name="sectionPrice">Лист1!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$10:$10</definedName>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>sum</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>Всього продано</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>Рентабельність, %</t>
   </si>
 </sst>
 </file>
@@ -537,7 +543,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -628,6 +634,12 @@
     </xf>
     <xf numFmtId="2" fontId="12" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1053,7 +1065,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="B1:N18"/>
+  <dimension ref="B1:O18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
@@ -1063,39 +1075,42 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="1" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="7.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" style="2" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" style="2" customWidth="1"/>
-    <col min="7" max="8" width="9.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="8" style="2" customWidth="1"/>
     <col min="9" max="9" width="11.140625" style="2" customWidth="1"/>
     <col min="10" max="10" width="13" style="2" customWidth="1"/>
     <col min="11" max="11" width="11.5703125" style="2" customWidth="1"/>
     <col min="12" max="12" width="12.5703125" style="2" customWidth="1"/>
     <col min="13" max="13" width="12.28515625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="2"/>
+    <col min="14" max="14" width="10.85546875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="27" customHeight="1">
-      <c r="B1" s="47" t="s">
+    <row r="1" spans="2:15" ht="27" customHeight="1">
+      <c r="B1" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-    </row>
-    <row r="2" spans="2:14" ht="12.75" customHeight="1">
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+    </row>
+    <row r="2" spans="2:15" ht="12.75" customHeight="1">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1109,8 +1124,9 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="2:14" ht="13.5" customHeight="1">
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="2:15" ht="13.5" customHeight="1">
       <c r="B3" s="20" t="s">
         <v>5</v>
       </c>
@@ -1128,8 +1144,9 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="2:14" ht="13.5" customHeight="1">
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="2:15" ht="13.5" customHeight="1">
       <c r="B4" s="22" t="s">
         <v>7</v>
       </c>
@@ -1148,8 +1165,9 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="2:14" ht="13.5" customHeight="1">
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="2:15" ht="13.5" customHeight="1">
       <c r="B5" s="20" t="s">
         <v>6</v>
       </c>
@@ -1158,7 +1176,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="13.5" customHeight="1">
+    <row r="6" spans="2:15" ht="13.5" customHeight="1">
       <c r="B6" s="20" t="s">
         <v>15</v>
       </c>
@@ -1171,49 +1189,52 @@
       <c r="F6" s="33"/>
       <c r="G6" s="33"/>
     </row>
-    <row r="7" spans="2:14" ht="5.25" customHeight="1">
+    <row r="7" spans="2:15" ht="5.25" customHeight="1">
       <c r="B7" s="20"/>
       <c r="D7" s="21"/>
     </row>
-    <row r="8" spans="2:14" ht="26.25" customHeight="1">
-      <c r="B8" s="51" t="s">
+    <row r="8" spans="2:15" ht="26.25" customHeight="1">
+      <c r="B8" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="51" t="s">
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="51" t="s">
+      <c r="H8" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="45" t="s">
+      <c r="I8" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="46"/>
-      <c r="K8" s="45" t="s">
+      <c r="J8" s="48"/>
+      <c r="K8" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="46"/>
-      <c r="M8" s="51" t="s">
+      <c r="L8" s="48"/>
+      <c r="M8" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="51" t="s">
+      <c r="N8" s="53" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B9" s="52"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
+      <c r="O8" s="53" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="15.75" customHeight="1">
+      <c r="B9" s="54"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
       <c r="I9" s="24" t="s">
         <v>11</v>
       </c>
@@ -1226,19 +1247,20 @@
       <c r="L9" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
-    </row>
-    <row r="10" spans="2:14" ht="13.5" customHeight="1">
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+    </row>
+    <row r="10" spans="2:15" ht="13.5" customHeight="1">
       <c r="B10" s="26">
         <v>1</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C10" s="50">
         <v>2</v>
       </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="50"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="52"/>
       <c r="G10" s="26">
         <v>3</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="N10" s="26">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="2:14" ht="12.75" customHeight="1">
+      <c r="O10" s="26">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" ht="12.75" customHeight="1">
       <c r="B11" s="30"/>
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
@@ -1277,9 +1302,10 @@
       <c r="K11" s="29"/>
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
-      <c r="N11" s="31"/>
-    </row>
-    <row r="12" spans="2:14" ht="12.75" customHeight="1">
+      <c r="N11" s="29"/>
+      <c r="O11" s="31"/>
+    </row>
+    <row r="12" spans="2:15" ht="12.75" customHeight="1">
       <c r="B12" s="35" t="e">
         <f>MatGroup_NAME</f>
         <v>#NAME?</v>
@@ -1295,20 +1321,21 @@
       <c r="K12" s="36"/>
       <c r="L12" s="36"/>
       <c r="M12" s="36"/>
-      <c r="N12" s="40"/>
-    </row>
-    <row r="13" spans="2:14" ht="12.75" customHeight="1">
+      <c r="N12" s="36"/>
+      <c r="O12" s="40"/>
+    </row>
+    <row r="13" spans="2:15" ht="12.75" customHeight="1">
       <c r="B13" s="37" t="e">
         <f>MatList_BARCODE</f>
         <v>#NAME?</v>
       </c>
-      <c r="C13" s="41" t="e">
+      <c r="C13" s="43" t="e">
         <f>MatList_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="43"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="45"/>
       <c r="G13" s="38" t="e">
         <f>MatList_MSRNAME</f>
         <v>#NAME?</v>
@@ -1341,17 +1368,21 @@
         <f>MatList_Income</f>
         <v>#NAME?</v>
       </c>
-    </row>
-    <row r="14" spans="2:14" ht="12.75" customHeight="1">
-      <c r="B14" s="44" t="s">
+      <c r="O13" s="41" t="e">
+        <f>N13/(J13-L13-N13)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" ht="12.75" customHeight="1">
+      <c r="B14" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
       <c r="I14" s="28"/>
       <c r="J14" s="27" t="s">
         <v>0</v>
@@ -1361,11 +1392,12 @@
         <v>0</v>
       </c>
       <c r="M14" s="27"/>
-      <c r="N14" s="27" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" ht="12.75" customHeight="1">
+      <c r="N14" s="27"/>
+      <c r="O14" s="42" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" ht="12.75" customHeight="1">
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
       <c r="D15" s="7"/>
@@ -1379,8 +1411,9 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
-    </row>
-    <row r="16" spans="2:14" ht="12.75" customHeight="1">
+      <c r="O15" s="9"/>
+    </row>
+    <row r="16" spans="2:15" ht="12.75" customHeight="1">
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
       <c r="D16" s="7"/>
@@ -1394,8 +1427,9 @@
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
-    </row>
-    <row r="17" spans="2:14" ht="12.75" customHeight="1">
+      <c r="O16" s="9"/>
+    </row>
+    <row r="17" spans="2:15" ht="12.75" customHeight="1">
       <c r="B17" s="10"/>
       <c r="C17" s="25" t="s">
         <v>3</v>
@@ -1421,7 +1455,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="18" spans="2:14" ht="12.75" customHeight="1">
+    <row r="18" spans="2:15" ht="12.75" customHeight="1">
       <c r="B18" s="16"/>
       <c r="C18" s="17"/>
       <c r="D18" s="16"/>
@@ -1435,26 +1469,28 @@
       <c r="L18" s="19"/>
       <c r="M18" s="19"/>
       <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="K8:L8"/>
-    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="B1:O1"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:F9"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="M8:M9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="G8:G9"/>
     <mergeCell ref="N8:N9"/>
-    <mergeCell ref="G8:G9"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="93" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;CСторінка &amp;P из &amp;N</oddFooter>
   </headerFooter>

--- a/SP_Sklad/TempLate/RepMatSelPr.xlsx
+++ b/SP_Sklad/TempLate/RepMatSelPr.xlsx
@@ -230,7 +230,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -249,8 +249,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -535,6 +541,36 @@
         <color indexed="55"/>
       </top>
       <bottom style="hair">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="23"/>
+      </left>
+      <right style="hair">
+        <color indexed="23"/>
+      </right>
+      <top style="hair">
+        <color indexed="23"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="hair">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
         <color indexed="23"/>
       </bottom>
       <diagonal/>
@@ -569,9 +605,6 @@
     <xf numFmtId="2" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -595,12 +628,6 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -635,10 +662,19 @@
     <xf numFmtId="2" fontId="12" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -699,7 +735,28 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -1127,10 +1184,10 @@
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="2:15" ht="13.5" customHeight="1">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="21" t="e">
+      <c r="D3" s="20" t="e">
         <f>CONCATENATE("з "&amp;XLRPARAMS_StartDate," по "&amp;XLRPARAMS_EndDate)</f>
         <v>#NAME?</v>
       </c>
@@ -1147,11 +1204,11 @@
       <c r="O3" s="3"/>
     </row>
     <row r="4" spans="2:15" ht="13.5" customHeight="1">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="23" t="e">
+      <c r="D4" s="22" t="e">
         <f>XLRPARAMS_GRP</f>
         <v>#NAME?</v>
       </c>
@@ -1168,30 +1225,30 @@
       <c r="O4" s="3"/>
     </row>
     <row r="5" spans="2:15" ht="13.5" customHeight="1">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="21" t="e">
+      <c r="D5" s="20" t="e">
         <f>XLRPARAMS_WH</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="13.5" customHeight="1">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="34" t="e">
+      <c r="C6" s="29"/>
+      <c r="D6" s="31" t="e">
         <f>XLRPARAMS_KAID</f>
         <v>#NAME?</v>
       </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
     </row>
     <row r="7" spans="2:15" ht="5.25" customHeight="1">
-      <c r="B7" s="20"/>
-      <c r="D7" s="21"/>
+      <c r="B7" s="19"/>
+      <c r="D7" s="20"/>
     </row>
     <row r="8" spans="2:15" ht="26.25" customHeight="1">
       <c r="B8" s="53" t="s">
@@ -1235,16 +1292,16 @@
       <c r="F9" s="60"/>
       <c r="G9" s="54"/>
       <c r="H9" s="54"/>
-      <c r="I9" s="24" t="s">
+      <c r="I9" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="24" t="s">
+      <c r="J9" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="24" t="s">
+      <c r="K9" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="24" t="s">
+      <c r="L9" s="23" t="s">
         <v>10</v>
       </c>
       <c r="M9" s="54"/>
@@ -1252,7 +1309,7 @@
       <c r="O9" s="54"/>
     </row>
     <row r="10" spans="2:15" ht="13.5" customHeight="1">
-      <c r="B10" s="26">
+      <c r="B10" s="25">
         <v>1</v>
       </c>
       <c r="C10" s="50">
@@ -1261,71 +1318,71 @@
       <c r="D10" s="51"/>
       <c r="E10" s="51"/>
       <c r="F10" s="52"/>
-      <c r="G10" s="26">
+      <c r="G10" s="25">
         <v>3</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="25">
         <v>4</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="25">
         <v>5</v>
       </c>
-      <c r="J10" s="26">
+      <c r="J10" s="25">
         <v>6</v>
       </c>
-      <c r="K10" s="26">
+      <c r="K10" s="25">
         <v>7</v>
       </c>
-      <c r="L10" s="26">
+      <c r="L10" s="25">
         <v>8</v>
       </c>
-      <c r="M10" s="26">
+      <c r="M10" s="25">
         <v>9</v>
       </c>
-      <c r="N10" s="26">
+      <c r="N10" s="25">
         <v>10</v>
       </c>
-      <c r="O10" s="26">
+      <c r="O10" s="25">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="2:15" ht="12.75" customHeight="1">
-      <c r="B11" s="30"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="31"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="28"/>
     </row>
     <row r="12" spans="2:15" ht="12.75" customHeight="1">
-      <c r="B12" s="35" t="e">
+      <c r="B12" s="32" t="e">
         <f>MatGroup_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="40"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="37"/>
     </row>
     <row r="13" spans="2:15" ht="12.75" customHeight="1">
-      <c r="B13" s="37" t="e">
+      <c r="B13" s="34" t="e">
         <f>MatList_BARCODE</f>
         <v>#NAME?</v>
       </c>
@@ -1336,40 +1393,40 @@
       <c r="D13" s="44"/>
       <c r="E13" s="44"/>
       <c r="F13" s="45"/>
-      <c r="G13" s="38" t="e">
+      <c r="G13" s="35" t="e">
         <f>MatList_MSRNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="H13" s="39" t="e">
+      <c r="H13" s="36" t="e">
         <f>MatList_AVGPRICE</f>
         <v>#NAME?</v>
       </c>
-      <c r="I13" s="38" t="e">
+      <c r="I13" s="35" t="e">
         <f>MatList_AmountOut</f>
         <v>#NAME?</v>
       </c>
-      <c r="J13" s="38" t="e">
+      <c r="J13" s="35" t="e">
         <f>MatList_SummOut</f>
         <v>#NAME?</v>
       </c>
-      <c r="K13" s="38" t="e">
+      <c r="K13" s="35" t="e">
         <f>MatList_AmountIn</f>
         <v>#NAME?</v>
       </c>
-      <c r="L13" s="38" t="e">
+      <c r="L13" s="35" t="e">
         <f>MatList_SummIn</f>
         <v>#NAME?</v>
       </c>
-      <c r="M13" s="38" t="e">
+      <c r="M13" s="35" t="e">
         <f>I13-K13</f>
         <v>#NAME?</v>
       </c>
-      <c r="N13" s="38" t="e">
+      <c r="N13" s="35" t="e">
         <f>MatList_Income</f>
         <v>#NAME?</v>
       </c>
-      <c r="O13" s="41" t="e">
-        <f>N13/(J13-L13-N13)</f>
+      <c r="O13" s="39" t="e">
+        <f>IF(AND((J13-L13-N13) &gt; 0,N13&gt;0),N13/(J13-L13-N13),0)</f>
         <v>#NAME?</v>
       </c>
     </row>
@@ -1383,16 +1440,16 @@
       <c r="F14" s="46"/>
       <c r="G14" s="46"/>
       <c r="H14" s="46"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="27" t="s">
+      <c r="I14" s="40"/>
+      <c r="J14" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="28"/>
-      <c r="L14" s="27" t="s">
+      <c r="K14" s="40"/>
+      <c r="L14" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
       <c r="O14" s="42" t="s">
         <v>18</v>
       </c>
@@ -1431,7 +1488,7 @@
     </row>
     <row r="17" spans="2:15" ht="12.75" customHeight="1">
       <c r="B17" s="10"/>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="24" t="s">
         <v>3</v>
       </c>
       <c r="D17" s="11"/>
@@ -1450,26 +1507,30 @@
         <v>#NAME?</v>
       </c>
       <c r="M17" s="14"/>
-      <c r="N17" s="15" t="e">
+      <c r="N17" s="14" t="e">
         <f>SummaryField_Income</f>
         <v>#NAME?</v>
       </c>
+      <c r="O17" s="38" t="e">
+        <f>SummaryField_Rentabelnist</f>
+        <v>#NAME?</v>
+      </c>
     </row>
     <row r="18" spans="2:15" ht="12.75" customHeight="1">
-      <c r="B18" s="16"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -1488,6 +1549,16 @@
     <mergeCell ref="N8:N9"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
+  <conditionalFormatting sqref="O13">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>0.4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O14">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0.4</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="93" orientation="landscape" r:id="rId1"/>
